--- a/Resultados/RESULTADOS_10.xlsx
+++ b/Resultados/RESULTADOS_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
       <c r="E2" t="n">
-        <v>78.43000000000001</v>
+        <v>101.39</v>
       </c>
       <c r="F2" t="n">
         <v>67.53</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="E3" t="n">
-        <v>43.04</v>
+        <v>49.29</v>
       </c>
       <c r="F3" t="n">
         <v>38.11</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>38.07</v>
+        <v>41.74</v>
       </c>
       <c r="F4" t="n">
         <v>34.06</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>38.58</v>
       </c>
       <c r="F5" t="n">
         <v>32.38</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="E6" t="n">
-        <v>34.87</v>
+        <v>36.86</v>
       </c>
       <c r="F6" t="n">
         <v>31.46</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="E7" t="n">
-        <v>33.87</v>
+        <v>35.46</v>
       </c>
       <c r="F7" t="n">
         <v>30.61</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="E8" t="n">
-        <v>33.79</v>
+        <v>35.12</v>
       </c>
       <c r="F8" t="n">
         <v>30.61</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E9" t="n">
-        <v>33.38</v>
+        <v>34.53</v>
       </c>
       <c r="F9" t="n">
         <v>30.27</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.02</v>
+        <v>2.93</v>
       </c>
       <c r="E10" t="n">
-        <v>33.09</v>
+        <v>34.08</v>
       </c>
       <c r="F10" t="n">
         <v>30.03</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.05</v>
+        <v>2.97</v>
       </c>
       <c r="E11" t="n">
-        <v>32.82</v>
+        <v>33.69</v>
       </c>
       <c r="F11" t="n">
         <v>29.81</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="E12" t="n">
-        <v>32.49</v>
+        <v>33.26</v>
       </c>
       <c r="F12" t="n">
         <v>29.51</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>32.62</v>
+        <v>33.34</v>
       </c>
       <c r="F13" t="n">
         <v>29.67</v>
@@ -1541,6 +1541,1072 @@
         <v>1</v>
       </c>
       <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>110</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E14" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>77.06999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>233.37</v>
+      </c>
+      <c r="K14" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="O14" t="n">
+        <v>29015.91</v>
+      </c>
+      <c r="P14" t="n">
+        <v>388.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>137.32</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18255.28</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>73.06</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>110</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>235.08</v>
+      </c>
+      <c r="K15" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="O15" t="n">
+        <v>29227.61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>382.19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>133.21</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>16210.35</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>73.98</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>110</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="G16" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" t="n">
+        <v>236.81</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="O16" t="n">
+        <v>29440.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>376.37</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>129.41</v>
+      </c>
+      <c r="S16" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14321.87</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>110</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="G17" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>238.54</v>
+      </c>
+      <c r="K17" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
+        <v>16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>29654.08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>374.73</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>134.01</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>16626.43</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>110</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>103.28</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>240.28</v>
+      </c>
+      <c r="K18" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L18" t="n">
+        <v>17</v>
+      </c>
+      <c r="M18" t="n">
+        <v>15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>57.16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>29869.01</v>
+      </c>
+      <c r="P18" t="n">
+        <v>367.79</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>128.02</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>13634.89</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X18" t="n">
+        <v>76.48</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>110</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>109.64</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16</v>
+      </c>
+      <c r="J19" t="n">
+        <v>242.03</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="O19" t="n">
+        <v>30084.9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>362.15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1194.86</v>
+      </c>
+      <c r="R19" t="n">
+        <v>126.98</v>
+      </c>
+      <c r="S19" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>13120.44</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X19" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>116.53</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>243.79</v>
+      </c>
+      <c r="K20" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>19</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>58.67</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30301.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>355.07</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>123.37</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>11321.64</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X20" t="n">
+        <v>77.84999999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>110</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>124.82</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>245.56</v>
+      </c>
+      <c r="K21" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>59.43</v>
+      </c>
+      <c r="O21" t="n">
+        <v>30519.94</v>
+      </c>
+      <c r="P21" t="n">
+        <v>350.34</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R21" t="n">
+        <v>122.97</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11127.39</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X21" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>110</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>134.13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>247.34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="O22" t="n">
+        <v>30739.14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>345.24</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>120.91</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10103.23</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X22" t="n">
+        <v>79.03</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>110</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>134.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13</v>
+      </c>
+      <c r="J23" t="n">
+        <v>249.12</v>
+      </c>
+      <c r="K23" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>61</v>
+      </c>
+      <c r="O23" t="n">
+        <v>30959.46</v>
+      </c>
+      <c r="P23" t="n">
+        <v>343.97</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R23" t="n">
+        <v>119.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9571.32</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X23" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>110</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="G24" t="n">
+        <v>134.14</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>250.92</v>
+      </c>
+      <c r="K24" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>61.79</v>
+      </c>
+      <c r="O24" t="n">
+        <v>31180.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>342.78</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R24" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="S24" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10089.34</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X24" t="n">
+        <v>80.12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>110</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>145.07</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>252.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>31403.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>342.88</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R25" t="n">
+        <v>119.12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>9212.129999999999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X25" t="n">
+        <v>80.64</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>110</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="G26" t="n">
+        <v>145.12</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>254.54</v>
+      </c>
+      <c r="K26" t="n">
+        <v>56.13</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>63.41</v>
+      </c>
+      <c r="O26" t="n">
+        <v>31627.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>119.43</v>
+      </c>
+      <c r="S26" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9364.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X26" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
         <v>10</v>
       </c>
     </row>
